--- a/Hx.BackAdmin/App_Data/市场日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/市场日报表模板.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="市场" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -208,14 +208,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>销售首次来客批次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售首次到店留档批次</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>新增微信粉丝总量</t>
   </si>
   <si>
@@ -224,6 +216,14 @@
   </si>
   <si>
     <t>市场活动老客户订单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅本月留存客户数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>展厅上月留存客户数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -956,13 +956,13 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AP52"/>
+  <dimension ref="A1:AP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,7 +978,7 @@
     <col min="38" max="38" width="9.625" style="11" customWidth="1"/>
     <col min="39" max="39" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="19.25" style="3" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="14.125" style="3" bestFit="1" customWidth="1"/>
     <col min="43" max="16384" width="9" style="3"/>
   </cols>
@@ -1179,9 +1179,9 @@
     </row>
     <row r="4" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1190,37 +1190,37 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
-      <c r="AH4" s="18">
-        <f>SUM(C4:AG4)</f>
-        <v>0</v>
+      <c r="AH4" s="18" t="e">
+        <f>LOOKUP(9E+307,C4:AG4)</f>
+        <v>#N/A</v>
       </c>
       <c r="AI4" s="29"/>
       <c r="AJ4" s="9" t="e">
-        <f t="shared" ref="AJ4:AJ23" si="0">AH4/AI4</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="AJ4:AJ22" si="0">AH4/AI4</f>
+        <v>#N/A</v>
       </c>
       <c r="AK4" s="6"/>
       <c r="AL4" s="10"/>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="5" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="16"/>
@@ -1288,18 +1288,18 @@
         <v>6</v>
       </c>
       <c r="AN5" s="38">
-        <f>AI5</f>
+        <f>AI6</f>
         <v>0</v>
       </c>
       <c r="AO5" s="28"/>
       <c r="AP5" s="28" t="e">
-        <f>AI5/AI4</f>
+        <f>AI6/AI5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="16"/>
@@ -1334,7 +1334,7 @@
       <c r="AF6" s="17"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="18">
-        <f t="shared" ref="AH6:AH7" si="1">SUM(C6:AG6)</f>
+        <f>SUM(C6:AG6)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="29"/>
@@ -1348,56 +1348,56 @@
         <v>7</v>
       </c>
       <c r="AN6" s="37">
-        <f>AH5</f>
+        <f>AH6</f>
         <v>0</v>
       </c>
       <c r="AO6" s="39" t="e">
-        <f>AH4/AI4</f>
+        <f>AH5/AI5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AP6" s="28" t="e">
-        <f>AH5/AH4</f>
+        <f>AH6/AH5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="18">
-        <f t="shared" si="1"/>
+      <c r="A7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="21">
+        <f>SUM(C7:AG7)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="29"/>
@@ -1405,8 +1405,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="10"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="14"/>
       <c r="AM7" s="27" t="s">
         <v>17</v>
       </c>
@@ -1419,13 +1419,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AP7" s="39" t="e">
-        <f t="shared" ref="AP7" si="2">AP6/AP5</f>
+        <f t="shared" ref="AP7" si="1">AP6/AP5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="19"/>
@@ -1460,7 +1460,7 @@
       <c r="AF8" s="20"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="21">
-        <f>SUM(C8:AG8)</f>
+        <f t="shared" ref="AH8:AH20" si="2">SUM(C8:AG8)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="29"/>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="9" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="19"/>
@@ -1508,7 +1508,7 @@
       <c r="AF9" s="20"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="21">
-        <f t="shared" ref="AH9:AH21" si="3">SUM(C9:AG9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI9" s="29"/>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="10" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="19"/>
@@ -1566,7 +1566,7 @@
       <c r="AF10" s="20"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI10" s="29"/>
@@ -1580,20 +1580,20 @@
         <v>34</v>
       </c>
       <c r="AN10" s="28" t="e">
-        <f>AH8/SUM(AH8:AH17)</f>
+        <f>AH7/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="AP10" s="12">
-        <f>AH20+AP9-AH24</f>
+        <f>AH19+AP9-AH23</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="19"/>
@@ -1628,7 +1628,7 @@
       <c r="AF11" s="20"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI11" s="29"/>
@@ -1642,14 +1642,17 @@
         <v>35</v>
       </c>
       <c r="AN11" s="28" t="e">
-        <f>AH9/SUM(AH8:AH17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO11" s="31"/>
+        <f>AH8/SUM(AH7:AH16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP11" s="12"/>
     </row>
     <row r="12" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="19"/>
@@ -1684,7 +1687,7 @@
       <c r="AF12" s="20"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI12" s="29"/>
@@ -1698,14 +1701,14 @@
         <v>36</v>
       </c>
       <c r="AN12" s="28" t="e">
-        <f>AH10/SUM(AH8:AH17)</f>
+        <f>AH9/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO12" s="31"/>
     </row>
     <row r="13" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="19"/>
@@ -1740,7 +1743,7 @@
       <c r="AF13" s="20"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI13" s="29"/>
@@ -1754,14 +1757,14 @@
         <v>37</v>
       </c>
       <c r="AN13" s="28" t="e">
-        <f>AH11/SUM(AH8:AH17)</f>
+        <f>AH10/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO13" s="31"/>
     </row>
     <row r="14" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="19"/>
@@ -1796,7 +1799,7 @@
       <c r="AF14" s="20"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI14" s="29"/>
@@ -1810,14 +1813,14 @@
         <v>38</v>
       </c>
       <c r="AN14" s="28" t="e">
-        <f>AH12/SUM(AH8:AH17)</f>
+        <f>AH11/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO14" s="31"/>
     </row>
     <row r="15" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="19"/>
@@ -1852,7 +1855,7 @@
       <c r="AF15" s="20"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI15" s="29"/>
@@ -1866,14 +1869,14 @@
         <v>39</v>
       </c>
       <c r="AN15" s="28" t="e">
-        <f>AH13/SUM(AH8:AH17)</f>
+        <f>AH12/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO15" s="31"/>
     </row>
     <row r="16" spans="1:42" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="19"/>
@@ -1908,7 +1911,7 @@
       <c r="AF16" s="20"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI16" s="29"/>
@@ -1922,49 +1925,49 @@
         <v>40</v>
       </c>
       <c r="AN16" s="28" t="e">
-        <f>AH14/SUM(AH8:AH17)</f>
+        <f>AH13/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO16" s="31"/>
     </row>
     <row r="17" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="21">
-        <f t="shared" si="3"/>
+      <c r="A17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="25">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI17" s="29"/>
@@ -1978,14 +1981,14 @@
         <v>41</v>
       </c>
       <c r="AN17" s="28" t="e">
-        <f>AH15/SUM(AH8:AH17)</f>
+        <f>AH14/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AO17" s="31"/>
     </row>
     <row r="18" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -2020,7 +2023,7 @@
       <c r="AF18" s="35"/>
       <c r="AG18" s="34"/>
       <c r="AH18" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI18" s="29"/>
@@ -2034,13 +2037,13 @@
         <v>114</v>
       </c>
       <c r="AN18" s="28" t="e">
-        <f>AH16/SUM(AH8:AH17)</f>
+        <f>AH15/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="34"/>
@@ -2075,7 +2078,7 @@
       <c r="AF19" s="35"/>
       <c r="AG19" s="34"/>
       <c r="AH19" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI19" s="29"/>
@@ -2089,13 +2092,13 @@
         <v>42</v>
       </c>
       <c r="AN19" s="28" t="e">
-        <f>AH17/SUM(AH8:AH17)</f>
+        <f>AH16/SUM(AH7:AH16)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="32" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -2130,7 +2133,7 @@
       <c r="AF20" s="35"/>
       <c r="AG20" s="34"/>
       <c r="AH20" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI20" s="29"/>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="21" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -2154,31 +2157,31 @@
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="35"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
       <c r="AG21" s="34"/>
-      <c r="AH21" s="25">
-        <f t="shared" si="3"/>
+      <c r="AH21" s="34">
+        <f t="shared" ref="AH21" si="3">SUM(C21:AG21)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="29"/>
@@ -2186,12 +2189,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK21" s="7"/>
+      <c r="AK21" s="26" t="s">
+        <v>10</v>
+      </c>
       <c r="AL21" s="14"/>
     </row>
     <row r="22" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
@@ -2226,7 +2231,7 @@
       <c r="AF22" s="34"/>
       <c r="AG22" s="34"/>
       <c r="AH22" s="34">
-        <f t="shared" ref="AH22" si="4">SUM(C22:AG22)</f>
+        <f>SUM(C22:AG22)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="29"/>
@@ -2234,14 +2239,12 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK22" s="26" t="s">
-        <v>10</v>
-      </c>
+      <c r="AK22" s="7"/>
       <c r="AL22" s="14"/>
     </row>
     <row r="23" spans="1:41" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="32" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="34"/>
@@ -2281,74 +2284,37 @@
       </c>
       <c r="AI23" s="29"/>
       <c r="AJ23" s="9" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AJ23" si="4">AH23/AI23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="14"/>
     </row>
     <row r="24" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34">
-        <f>SUM(C24:AG24)</f>
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="9" t="e">
-        <f t="shared" ref="AJ24" si="5">AH24/AI24</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
       <c r="AK24" s="7"/>
       <c r="AL24" s="14"/>
     </row>
     <row r="25" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="14"/>
     </row>
@@ -2375,40 +2341,33 @@
       <c r="AL27" s="14"/>
     </row>
     <row r="28" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="AK28" s="7"/>
+      <c r="AK28" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="AL28" s="14"/>
     </row>
     <row r="29" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="AK29" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="AK29" s="7"/>
       <c r="AL29" s="14"/>
     </row>
     <row r="30" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="AK30" s="7"/>
+      <c r="AK30" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="AL30" s="14"/>
     </row>
     <row r="31" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="AK31" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="AK31" s="7"/>
       <c r="AL31" s="14"/>
     </row>
     <row r="32" spans="1:41" ht="20.100000000000001" customHeight="1">
-      <c r="AK32" s="7"/>
+      <c r="AK32" s="44" t="s">
+        <v>13</v>
+      </c>
       <c r="AL32" s="14"/>
     </row>
     <row r="33" spans="37:38" ht="20.100000000000001" customHeight="1">
-      <c r="AK33" s="44" t="s">
-        <v>13</v>
-      </c>
+      <c r="AK33" s="45"/>
       <c r="AL33" s="14"/>
     </row>
     <row r="34" spans="37:38" ht="20.100000000000001" customHeight="1">
@@ -2424,15 +2383,15 @@
       <c r="AL36" s="14"/>
     </row>
     <row r="37" spans="37:38" ht="20.100000000000001" customHeight="1">
-      <c r="AK37" s="45"/>
+      <c r="AK37" s="46"/>
       <c r="AL37" s="14"/>
     </row>
     <row r="38" spans="37:38" ht="20.100000000000001" customHeight="1">
-      <c r="AK38" s="46"/>
+      <c r="AK38" s="36"/>
       <c r="AL38" s="14"/>
     </row>
-    <row r="39" spans="37:38" ht="20.100000000000001" customHeight="1">
-      <c r="AK39" s="36"/>
+    <row r="39" spans="37:38">
+      <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
     </row>
     <row r="40" spans="37:38">
@@ -2440,18 +2399,18 @@
       <c r="AL40" s="14"/>
     </row>
     <row r="41" spans="37:38">
-      <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
     </row>
     <row r="42" spans="37:38">
+      <c r="AK42" s="15"/>
       <c r="AL42" s="14"/>
     </row>
     <row r="43" spans="37:38">
       <c r="AK43" s="15"/>
-      <c r="AL43" s="14"/>
     </row>
     <row r="44" spans="37:38">
       <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
     </row>
     <row r="45" spans="37:38">
       <c r="AK45" s="15"/>
@@ -2474,24 +2433,20 @@
       <c r="AL49" s="15"/>
     </row>
     <row r="50" spans="37:38">
-      <c r="AK50" s="15"/>
       <c r="AL50" s="15"/>
     </row>
     <row r="51" spans="37:38">
       <c r="AL51" s="15"/>
-    </row>
-    <row r="52" spans="37:38">
-      <c r="AL52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:AJ2"/>
     <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AK33:AK38"/>
+    <mergeCell ref="AK32:AK37"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
